--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -127,10 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>为何同一个宝贝里能插入3个猜你喜欢（最多两个模板啊）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>open</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,6 +153,11 @@
   </si>
   <si>
     <t>open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为何同一个宝贝里能插入3个猜你喜欢（最多两个模板啊）
+http://item.taobao.com/item.htm?id=9983910233</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -273,19 +274,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -871,7 +860,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -988,13 +977,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="4">
         <v>40734</v>
@@ -1018,19 +1007,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
+    <row r="9" spans="1:5" ht="28.5">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1050,10 +1039,10 @@
     </row>
     <row r="11" spans="1:5" ht="28.5">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -16,8 +16,936 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>太白</author>
+  </authors>
+  <commentList>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>太白</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当卖家启用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>“</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自动推荐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>”</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的模板时，提示</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>“</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>您的请求已提交给系统。系统每周会对您的每个宝贝进行一次全面分析，并自动更新相关宝贝推荐结果（会邮件通知到您）。现在您可以关闭本网页了</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>”
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、获取该卖家当前所有商品（包括</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">onsale </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>和</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> instock</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、对每个商品，计算同一个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>seller_cid</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>下销售额（</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=volume*price</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>）最高的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>onsale</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">商品（不包括该商品自身）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    2.1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果同一个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>seller_cid</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>下不足</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个推荐商品，则用整个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>shop</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>销售额最高的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>onsale</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">商品依次补足（不包括该商品自身）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    2.2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果上述情况下有多个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>onsale</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>商品的销售额排名并列相同（比如销售额均为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">），则优先取与该商品价格差距绝对值小的商品
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、计算得到每个商品的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">个相关商品后，自动插入到这些商品里
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、插入代码完成后，给卖家发一封邮件（邮箱帐号、服务器、模板</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">附后）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、每周更新一次推荐结果</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>接收邮件服务器：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pop.exmail.qq.com</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，使用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SSL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，端口号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">995
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>发送邮件服务器：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>smtp.exmail.qq.com</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，使用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SSL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，端口号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>465</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>或</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">587
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>账户名：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">admin@23201.com
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>密码：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">taojin1234
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>电子邮件地址：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">admin@23201.com
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>启用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>禁用操作完成后的邮件模板：
+亲爱的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$nick</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>您启用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>禁用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$template_name</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">的操作已经完成：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    *</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个宝贝操作成功，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">个宝贝操作失败。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如有疑问，请给我们留言：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">http://app.23201.com/top/share.html
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>来自：淘金宝（</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>app.taobao.com</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,6 +1086,14 @@
   <si>
     <t>为何同一个宝贝里能插入3个猜你喜欢（最多两个模板啊）
 http://item.taobao.com/item.htm?id=9983910233</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化推荐算法，每周更新一次，具体规则请见批注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +1101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -185,6 +1121,34 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -274,7 +1238,19 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -857,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1086,6 +2062,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E11">
     <filterColumn colId="1"/>
@@ -1096,12 +2087,13 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -22,7 +22,7 @@
     <author>太白</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1238,19 +1238,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1367,7 +1355,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1414,7 +1402,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1509,7 +1497,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1835,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1901,31 +1889,31 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <v>40734</v>
+        <v>40761</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
         <v>40734</v>
@@ -1936,10 +1924,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1948,77 +1936,79 @@
         <v>40734</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>40734</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>40734</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5">
-      <c r="A9" s="5" t="s">
-        <v>34</v>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+    <row r="10" spans="1:5" ht="28.5">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.5">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -2028,49 +2018,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
+    <row r="12" spans="1:5" ht="28.5">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4">
-        <v>40720</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <v>40712</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
@@ -2081,13 +2067,13 @@
   <autoFilter ref="A1:E11">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <sortState ref="A2:E13">
+    <sortState ref="A2:E14">
       <sortCondition descending="1" ref="C1:C11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -940,6 +940,325 @@
         </r>
       </text>
     </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>太白</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>从“历史操作”里，取出操作类型为“启用”，操作成功的宝贝数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt;0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的最新</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>条操作记录
+最好能做成实时刷新，性能吃不消就做成每</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">秒自动刷新一次，视觉尽量看起来在动态刷新
+显示内容为：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$nick</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$shop_url</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nick</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上带上到该</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nick</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>店铺的链接（从</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> http://my.open.taobao.com/apidoc/index.htm#categoryId:9-apiId:68 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可以查到店铺</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，即</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sid</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，可以拼接出</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>shop url</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，例如：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>http://shop66056420.taobao.com</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">），新窗口打开
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$seller_credit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：可以让傻鱼前端再处理成心，钻，冠，应该有现成脚本的
+操作时间
+操作成功的宝贝数
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$template_name</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：模板名称</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1039,10 +1358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在应用里增加“最近启用店铺”列表，刺激用户启用淘金宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1094,6 +1409,10 @@
   </si>
   <si>
     <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在应用里增加“已启用店铺秀”动态刷新列表，刺激用户启用淘金宝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1441,20 +1760,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1468,55 +1787,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6305550" y="2133600"/>
-          <a:ext cx="7534275" cy="4057650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6334125" y="2524125"/>
-          <a:ext cx="3876675" cy="1247775"/>
+          <a:off x="6191250" y="1085850"/>
+          <a:ext cx="5476875" cy="4067175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,7 +2096,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1890,10 +2162,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1941,10 +2213,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -1953,18 +2225,18 @@
         <v>40734</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D8" s="4">
         <v>40734</v>
@@ -1990,17 +2262,17 @@
     </row>
     <row r="10" spans="1:5" ht="28.5">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2008,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -2020,10 +2292,10 @@
     </row>
     <row r="12" spans="1:5" ht="28.5">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>太白</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1330,10 +1330,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>历史操作的"操作时间"存在8个小时时差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>首页和意见建议反馈 width 和 其他页面不一致，页面切换时老是在抖动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1343,10 +1339,6 @@
   </si>
   <si>
     <t>人工选择宝贝时，搜索不要对大小写敏感</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工选择宝贝时，每点击一次搜索，搜索结果就会复制一份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1413,6 +1405,14 @@
   </si>
   <si>
     <t>在应用里增加“已启用店铺秀”动态刷新列表，刺激用户启用淘金宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在重复问题，我如果推荐了一个宝贝到右侧了，但重新加载下搜索，这个宝贝依然会在左侧出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1557,7 +1557,19 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1587,8 +1599,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1621,13 +1633,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1668,13 +1680,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1715,13 +1727,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1762,13 +1774,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1789,6 +1801,53 @@
         <a:xfrm>
           <a:off x="6191250" y="1085850"/>
           <a:ext cx="5476875" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3371850"/>
+          <a:ext cx="9029700" cy="3838575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2093,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2128,7 +2187,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -2145,64 +2204,64 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
-        <v>40734</v>
+        <v>40761</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <v>40761</v>
+        <v>40734</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>40734</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>40734</v>
@@ -2213,44 +2272,40 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40734</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4">
-        <v>40734</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -2262,25 +2317,25 @@
     </row>
     <row r="10" spans="1:5" ht="28.5">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -2290,15 +2345,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5">
-      <c r="A12" s="5" t="s">
-        <v>29</v>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
@@ -2307,40 +2362,25 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11">
+  <autoFilter ref="A1:E9">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <sortState ref="A2:E14">
-      <sortCondition descending="1" ref="C1:C11"/>
+    <sortState ref="A2:E13">
+      <sortCondition descending="1" ref="C1:C9"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -1557,19 +1557,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1593,46 +1581,6 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 1" descr="C:\Documents and Settings\taibai\Application Data\Fetion\temp\066479ec0501fe51168dc3f6c96b982a.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6238875" y="361950"/>
-          <a:ext cx="2257425" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1650,7 +1598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1697,7 +1645,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1744,7 +1692,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1772,16 +1720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1791,7 +1739,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1799,7 +1747,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6191250" y="1085850"/>
+          <a:off x="6248400" y="38100"/>
           <a:ext cx="5476875" cy="4067175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1838,7 +1786,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2155,7 +2103,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2199,7 +2147,7 @@
         <v>40734</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$8</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>太白</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1354,65 +1354,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://item.taobao.com/item.htm?id=8817616602
+    <t>点击“启用”或“禁用”后，提示窗口出来非常慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化推荐算法，每周更新一次，具体规则请见批注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在应用里增加“已启用店铺秀”动态刷新列表，刺激用户启用淘金宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在重复问题，我如果推荐了一个宝贝到右侧了，但重新加载下搜索，这个宝贝依然会在左侧出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文广&amp;傻鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE下样式有问题，右侧边框显示不出来http://item.taobao.com/item.htm?id=8817616602
 http://item.taobao.com/item.htm?id=10059175489</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“启用”或“禁用”后，提示窗口出来非常慢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为何同一个宝贝里能插入3个猜你喜欢（最多两个模板啊）
-http://item.taobao.com/item.htm?id=9983910233</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化推荐算法，每周更新一次，具体规则请见批注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在应用里增加“已启用店铺秀”动态刷新列表，刺激用户启用淘金宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在重复问题，我如果推荐了一个宝贝到右侧了，但重新加载下搜索，这个宝贝依然会在左侧出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1557,7 +1540,19 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1580,19 +1575,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 7"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1606,148 +1601,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6238875" y="2352675"/>
-          <a:ext cx="10106025" cy="4648200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6238875" y="2714625"/>
-          <a:ext cx="7686675" cy="2628900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6238875" y="1628775"/>
-          <a:ext cx="4505325" cy="3771900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6248400" y="38100"/>
+          <a:off x="6276975" y="4210050"/>
           <a:ext cx="5476875" cy="4067175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1767,26 +1621,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPr id="7" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1794,7 +1648,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="3371850"/>
+          <a:off x="6200775" y="2466975"/>
           <a:ext cx="9029700" cy="3838575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2100,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2134,34 +1988,34 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>40734</v>
+        <v>40761</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4">
-        <v>40761</v>
+        <v>40740</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -2178,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <v>40734</v>
+        <v>40740</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -2186,7 +2040,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -2195,35 +2049,33 @@
         <v>12</v>
       </c>
       <c r="D5" s="4">
-        <v>40734</v>
+        <v>40740</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4">
-        <v>40734</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
+    <row r="7" spans="1:5" ht="42.75">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -2233,19 +2085,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.5">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2253,25 +2105,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
@@ -2280,13 +2132,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
@@ -2295,40 +2147,25 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E9">
+  <autoFilter ref="A1:E8">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <sortState ref="A2:E13">
-      <sortCondition descending="1" ref="C1:C9"/>
+    <sortState ref="A2:E12">
+      <sortCondition descending="1" ref="C1:C8"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1299,10 +1299,6 @@
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1540,19 +1536,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1957,7 +1941,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1989,10 +1973,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2005,144 +1989,144 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>40740</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>40740</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
         <v>40740</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.75">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2150,10 +2134,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1392,6 +1392,18 @@
   <si>
     <t>IE下样式有问题，右侧边框显示不出来http://item.taobao.com/item.htm?id=8817616602
 http://item.taobao.com/item.htm?id=10059175489</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1577,7 +1589,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1624,7 +1636,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1941,7 +1953,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2030,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4">
         <v>40740</v>
@@ -2062,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
@@ -2077,7 +2089,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>历史操作时间有误，比如12:40显示为13:53</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -96,6 +92,32 @@
   </si>
   <si>
     <t>404页面优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文广，傻鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直处于“正在启动”状态，用户名：
+hfxtea茶叶旗舰店
+qiqi8179596
+笨蛋大侠
+haiyangf1
+乡村小区 
+彩虹熊仔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文广</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +526,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -548,32 +570,32 @@
         <v>40768</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="99.75">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4">
-        <v>40747</v>
+        <v>40748</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -582,78 +604,78 @@
         <v>40748</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">

--- a/trunk/todo.xlsx
+++ b/trunk/todo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>文广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“启用”或“禁用”后，提示页面出现的是json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +228,19 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -236,6 +256,58 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6238875" y="2895600"/>
+          <a:ext cx="7877175" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -601,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <v>40748</v>
+        <v>40761</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
@@ -680,6 +752,23 @@
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40761</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -692,11 +781,12 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>